--- a/UZr/UZrXe_fitting.xlsx
+++ b/UZr/UZrXe_fitting.xlsx
@@ -1,38 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/Documents/UZr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/UZr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA494D7-C96D-3F48-9B9F-51C9C9C5807E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF47857-56F3-8B4E-9F9B-C38A95E47D7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="10620" windowWidth="30380" windowHeight="15940" xr2:uid="{BB65A101-BC44-F242-9CDA-C79354E6BCD6}"/>
+    <workbookView xWindow="2360" yWindow="6680" windowWidth="30380" windowHeight="15940" xr2:uid="{BB65A101-BC44-F242-9CDA-C79354E6BCD6}"/>
   </bookViews>
   <sheets>
     <sheet name="workshop" sheetId="1" r:id="rId1"/>
     <sheet name="errors" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="61">
   <si>
     <t>Uxe B1</t>
   </si>
@@ -212,6 +206,9 @@
   </si>
   <si>
     <t>rmsd</t>
+  </si>
+  <si>
+    <t>VASP</t>
   </si>
 </sst>
 </file>
@@ -256,9 +253,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9A9873-6C60-AE4E-9D15-04ABB7CEAB96}">
-  <dimension ref="A3:S36"/>
+  <dimension ref="A3:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B34"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -584,7 +582,7 @@
     <col min="19" max="19" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -605,7 +603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -627,7 +625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -653,7 +651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
         <v>12</v>
       </c>
@@ -685,7 +683,7 @@
         <v>0.29048608250000019</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -719,7 +717,7 @@
         <v>22.8125</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>-471.86781428772798</v>
       </c>
@@ -740,7 +738,7 @@
         <v>28.19</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>19.518667752117601</v>
       </c>
@@ -749,7 +747,7 @@
         <v>6.5062225840392003</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="M10" t="s">
         <v>13</v>
       </c>
@@ -766,7 +764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -789,7 +787,7 @@
         <v>28.135000000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>-442.176387029853</v>
       </c>
@@ -810,7 +808,7 @@
         <v>24.842500000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>16.5210383841214</v>
       </c>
@@ -831,6 +829,24 @@
         <v>30.4</v>
       </c>
     </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S14">
+        <v>31.822199999999999</v>
+      </c>
+      <c r="T14">
+        <v>28.77027</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S15">
+        <f>S14/8</f>
+        <v>3.9777749999999998</v>
+      </c>
+      <c r="T15">
+        <f>T14/6</f>
+        <v>4.795045</v>
+      </c>
+    </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
@@ -867,6 +883,9 @@
       <c r="M20" t="s">
         <v>57</v>
       </c>
+      <c r="N20" t="s">
+        <v>60</v>
+      </c>
       <c r="P20" t="s">
         <v>51</v>
       </c>
@@ -907,7 +926,7 @@
         <v>6</v>
       </c>
       <c r="L21" s="1">
-        <v>2.3883294429359179</v>
+        <v>2.3883294429359201</v>
       </c>
       <c r="M21" s="1">
         <v>2.4617363101350591</v>
@@ -917,7 +936,7 @@
       </c>
       <c r="P21" s="1">
         <f>ABS(L21-N21)/N21</f>
-        <v>0.17311456618767429</v>
+        <v>0.17311456618767351</v>
       </c>
       <c r="Q21" s="1">
         <f>ABS(M21-N21)/N21</f>
@@ -968,7 +987,7 @@
         <v>6.6334792326090755E-2</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" ref="Q22:Q33" si="1">ABS(M22-N22)/N22</f>
+        <f t="shared" ref="Q22:Q32" si="1">ABS(M22-N22)/N22</f>
         <v>7.6152358544696583E-2</v>
       </c>
       <c r="S22" s="1">
@@ -1497,7 +1516,7 @@
       </c>
       <c r="P35" s="1">
         <f>AVERAGE(P21:P33)*100</f>
-        <v>10.199721311469455</v>
+        <v>10.19972131146945</v>
       </c>
       <c r="Q35" s="1">
         <f>AVERAGE(Q21:Q33)*100</f>
@@ -1523,6 +1542,9 @@
         <f>MAX(Q21:Q33)*100</f>
         <v>19.830338559131043</v>
       </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="E38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1534,7 +1556,7 @@
   <dimension ref="A4:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
